--- a/instruccion.xlsx
+++ b/instruccion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Estimacion_Probit_Microeconometria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6058C123-1079-4019-A100-137E8850CBCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1568BA99-E564-4F7B-B613-339AF1F678FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{A04344BE-4162-455C-9023-98B233954D22}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,33 +62,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor theme="9" tint="0.79998168889431442"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -100,13 +80,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color theme="9" tint="0.39997558519241921"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -114,11 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4538653-B40C-4B8F-B7E8-0AC3C9E82AC7}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,450 +441,451 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>2.66</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>2.89</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>22</v>
       </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3.28</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>24</v>
       </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>2.92</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>2.86</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>2.76</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>17</v>
       </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>2.87</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="1">
         <v>21</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>3.03</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>25</v>
       </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>3.92</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="1">
         <v>29</v>
       </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>2.63</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>20</v>
       </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>3.32</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="1">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>3.57</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>23</v>
       </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>3.26</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="1">
         <v>25</v>
       </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>3.53</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>26</v>
       </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>2.74</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="1">
         <v>19</v>
       </c>
-      <c r="C17" s="3">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>2.75</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>25</v>
       </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>2.83</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="1">
         <v>19</v>
       </c>
-      <c r="C19" s="3">
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>3.12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>23</v>
       </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>3.16</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="1">
         <v>25</v>
       </c>
-      <c r="C21" s="3">
-        <v>1</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>2.06</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>3.62</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="1">
         <v>28</v>
       </c>
-      <c r="C23" s="3">
-        <v>1</v>
-      </c>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>2.89</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>14</v>
       </c>
-      <c r="C24" s="2">
-        <v>1</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>3.51</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="1">
         <v>26</v>
       </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>3.54</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>2.83</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="1">
         <v>27</v>
       </c>
-      <c r="C27" s="3">
-        <v>1</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>3.39</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>17</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>2.67</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="3">
-        <v>1</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>3.65</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>21</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>4</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="1">
         <v>23</v>
       </c>
-      <c r="C31" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>3.1</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>21</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>2.39</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="1">
         <v>19</v>
       </c>
-      <c r="C33" s="3">
-        <v>1</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
         <v>1</v>
       </c>
     </row>
